--- a/Template-KPI.xlsx
+++ b/Template-KPI.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425" codeName="{E757BCB4-07E6-AE0B-56E0-F0EEF7A6E26C}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="EsteLivro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RodrigoPereiraSTREAM\Documents\GitHub\dashboard-tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RodrigoPereiraSTREAM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9104046-910A-43AD-9252-C395499EF83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4A6087-0BD4-40B7-9ED1-31DE1CB28084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="628" xr2:uid="{E635A9AC-F29E-4BE1-9FFE-05F762A4CE8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demonstração de Resultados" sheetId="1" r:id="rId1"/>
     <sheet name="Balanço" sheetId="2" r:id="rId2"/>
     <sheet name="Indicadores" sheetId="3" r:id="rId3"/>
   </sheets>
-  <functionGroups builtInGroupCount="19"/>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -128,6 +124,21 @@
     <t>RESULTADO LÍQUIDO DO PERÍODO</t>
   </si>
   <si>
+    <t>Autofinanciamento</t>
+  </si>
+  <si>
+    <t>VBP</t>
+  </si>
+  <si>
+    <t>VAB</t>
+  </si>
+  <si>
+    <t>N.º de Recursos Humanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume de negócios Internacioal </t>
+  </si>
+  <si>
     <t>Balanço</t>
   </si>
   <si>
@@ -302,117 +313,129 @@
     <t>TOTAL DO CAPITAL PRÓPRIO + PASSIVO</t>
   </si>
   <si>
-    <t>Autofinanciamento</t>
-  </si>
-  <si>
-    <t>VBP</t>
-  </si>
-  <si>
-    <t>VAB</t>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Fórmula de Cálculo</t>
+  </si>
+  <si>
+    <t>Rentabilidade do negócios</t>
+  </si>
+  <si>
+    <t>Margem Operacional</t>
+  </si>
+  <si>
+    <t>EBITDA/Volume de Negócios</t>
+  </si>
+  <si>
+    <t>Margem Bruta</t>
+  </si>
+  <si>
+    <t>(Volume de Negócios-CMVMC)/Volume de Negócios</t>
+  </si>
+  <si>
+    <t>Margem Líquida</t>
+  </si>
+  <si>
+    <t>Resultados Líquidos / Volume de Negócios</t>
   </si>
   <si>
     <t>Nível de Valor Acrescentado</t>
   </si>
   <si>
-    <t>Indicador</t>
-  </si>
-  <si>
-    <t>Fórmula de Cálculo</t>
+    <t>VAB/VBP</t>
+  </si>
+  <si>
+    <t>Rentabilidade do Ativo</t>
+  </si>
+  <si>
+    <t>Resultados Líquidos / Ativo</t>
+  </si>
+  <si>
+    <t>Operacionais</t>
+  </si>
+  <si>
+    <t>Turnover do Ativo</t>
+  </si>
+  <si>
+    <t>Volume de negócios/ Ativo</t>
+  </si>
+  <si>
+    <t>% Rh no Volume de Negócios</t>
+  </si>
+  <si>
+    <t>Gastos com pessoal / Volume de Negócios</t>
+  </si>
+  <si>
+    <t>% FSE no Volume de Negócios</t>
+  </si>
+  <si>
+    <t>FSE / Voluma de Negócios</t>
+  </si>
+  <si>
+    <t>% CMVMC / Volume de negócios</t>
+  </si>
+  <si>
+    <t>CMVMC / Volume de Negócios</t>
+  </si>
+  <si>
+    <t>% Custos no Volume de Negócios</t>
+  </si>
+  <si>
+    <t>(CMVMC + FSE + Gastos com Pessoal) / Volume de Negócios</t>
+  </si>
+  <si>
+    <t>Prazo Médio de Pagamentos</t>
+  </si>
+  <si>
+    <t>(Fornecedores / (Compras x (1+Tx IVA)) x 365</t>
+  </si>
+  <si>
+    <t>Prazo Médio de Recebimentos</t>
+  </si>
+  <si>
+    <t>Clientes / ((Vendas x (1+tx . IVA)) x 365</t>
+  </si>
+  <si>
+    <t>Valor gerado por RH</t>
+  </si>
+  <si>
+    <t>VAB/N.º de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Taxa de Exportação</t>
+  </si>
+  <si>
+    <t>Volume de negócios Internacioal / Volume de Negócios</t>
+  </si>
+  <si>
+    <t>Liquidez</t>
+  </si>
+  <si>
+    <t>Liquidez Geral</t>
+  </si>
+  <si>
+    <t>Ativo Corrente / Passivo Corrente</t>
+  </si>
+  <si>
+    <t>Liquidez Reduzida</t>
+  </si>
+  <si>
+    <t>(Ativo corrente - Inventários) / Passivo Corrente</t>
+  </si>
+  <si>
+    <t>Liquidez imediata</t>
+  </si>
+  <si>
+    <t>Caixa e Depósitos Bancários / Passivo Corrente</t>
+  </si>
+  <si>
+    <t>Financeiros</t>
   </si>
   <si>
     <t>Autonomia Financeira</t>
   </si>
   <si>
-    <t>Margem Bruta</t>
-  </si>
-  <si>
-    <t>Margem Operacional</t>
-  </si>
-  <si>
-    <t>EBITDA/Volume de Negócios</t>
-  </si>
-  <si>
-    <t>(Volume de Negócios-CMVMC)/Volume de Negócios</t>
-  </si>
-  <si>
-    <t>Margem Líquida</t>
-  </si>
-  <si>
-    <t>Resultados Líquidos / Volume de Negócios</t>
-  </si>
-  <si>
-    <t>Turnover do Ativo</t>
-  </si>
-  <si>
-    <t>Rentabilidade do Ativo</t>
-  </si>
-  <si>
-    <t>Resultados Líquidos / Ativo</t>
-  </si>
-  <si>
-    <t>(CMVMC + FSE + Gastos com Pessoal) / Volume de Negócios</t>
-  </si>
-  <si>
-    <t>Volume de negócios/ Ativo</t>
-  </si>
-  <si>
-    <t>Gastos com pessoal / Volume de Negócios</t>
-  </si>
-  <si>
-    <t>FSE / Voluma de Negócios</t>
-  </si>
-  <si>
-    <t>% Rh no Volume de Negócios</t>
-  </si>
-  <si>
-    <t>% FSE no Volume de Negócios</t>
-  </si>
-  <si>
-    <t>% Custos no Volume de Negócios</t>
-  </si>
-  <si>
-    <t>% CMVMC / Volume de negócios</t>
-  </si>
-  <si>
-    <t>CMVMC / Volume de Negócios</t>
-  </si>
-  <si>
-    <t>Prazo Médio de Pagamentos</t>
-  </si>
-  <si>
-    <t>Prazo Médio de Recebimentos</t>
-  </si>
-  <si>
-    <t>(Fornecedores / (Compras x (1+Tx IVA)) x 365</t>
-  </si>
-  <si>
-    <t>Clientes / ((Vendas x (1+tx . IVA)) x 365</t>
-  </si>
-  <si>
-    <t>Liquidez</t>
-  </si>
-  <si>
-    <t>Liquidez Geral</t>
-  </si>
-  <si>
-    <t>Ativo Corrente / Passivo Corrente</t>
-  </si>
-  <si>
-    <t>Liquidez Reduzida</t>
-  </si>
-  <si>
-    <t>(Ativo corrente - Inventários) / Passivo Corrente</t>
-  </si>
-  <si>
-    <t>Liquidez imediata</t>
-  </si>
-  <si>
-    <t>Caixa e Depósitos Bancários / Passivo Corrente</t>
-  </si>
-  <si>
-    <t>Financeiros</t>
-  </si>
-  <si>
     <t>Capital Próprio/Ativo</t>
   </si>
   <si>
@@ -440,40 +463,13 @@
     <t>Rentabilidade do Capital Investido</t>
   </si>
   <si>
+    <t>(Ebit - Imposto) / Ativo</t>
+  </si>
+  <si>
     <t>Rentabilidade do Capital Próprio</t>
   </si>
   <si>
-    <t>(Ebit - Imposto) / Ativo</t>
-  </si>
-  <si>
     <t>Resultado Líquido / Capital Próprio</t>
-  </si>
-  <si>
-    <t>VAB/VBP</t>
-  </si>
-  <si>
-    <t>Rentabilidade do negócios</t>
-  </si>
-  <si>
-    <t>Operacionais</t>
-  </si>
-  <si>
-    <t>Taxa de Exportação</t>
-  </si>
-  <si>
-    <t>Volume de negócios Internacioal / Volume de Negócios</t>
-  </si>
-  <si>
-    <t>VAB/N.º de Recursos Humanos</t>
-  </si>
-  <si>
-    <t>Valor gerado por RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume de negócios Internacioal </t>
-  </si>
-  <si>
-    <t>N.º de Recursos Humanos</t>
   </si>
 </sst>
 </file>
@@ -481,10 +477,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -775,16 +771,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,38 +788,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,17 +828,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -857,7 +853,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,58 +877,42 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Moeda 2" xfId="6" xr:uid="{39C94FB8-ABD7-4992-B151-4C4D26518182}"/>
-    <cellStyle name="Moeda 3" xfId="5" xr:uid="{A4278551-29E3-4819-B760-F38B362ED060}"/>
-    <cellStyle name="Moeda 4" xfId="7" xr:uid="{3C7C3CE8-2701-4000-BCC8-E7C19AA43826}"/>
+    <cellStyle name="Moeda 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Moeda 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Moeda 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F46EB930-A0EC-44F3-8ABC-0BE68C7AA618}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8490BCFE-BADB-4523-A5BD-50825F66BA1B}"/>
-    <cellStyle name="Normal 3 2" xfId="3" xr:uid="{DB4F5EFC-A14A-4FD6-87B4-D1F13F6A6F78}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
-    <cellStyle name="Vírgula 2" xfId="8" xr:uid="{E032E1E1-449F-4E0A-AE02-7F1C7EF81DFB}"/>
+    <cellStyle name="Vírgula 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFA1D98F"/>
-      <color rgb="FFDDEBE6"/>
-      <color rgb="FFFCEAEB"/>
-      <color rgb="FFF9DBE0"/>
-      <color rgb="FF488F31"/>
-      <color rgb="FF8CBCAC"/>
-      <color rgb="FFF09FA2"/>
-      <color rgb="FFDE425B"/>
-      <color rgb="FFD9D9D9"/>
-      <color rgb="FFF3F3F3"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1276,32 +1256,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07D9B07-BB9D-4C98-B39E-BCF6C58BD641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Folha1"/>
-  <dimension ref="B3:H38"/>
+  <dimension ref="B3:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1320,11 +1300,8 @@
       <c r="G4" s="1">
         <v>2021</v>
       </c>
-      <c r="H4" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
@@ -1333,9 +1310,8 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1344,9 +1320,8 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
@@ -1355,9 +1330,8 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
@@ -1366,9 +1340,8 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
@@ -1377,9 +1350,8 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
@@ -1388,9 +1360,8 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
@@ -1399,9 +1370,8 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
@@ -1410,9 +1380,8 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
@@ -1421,9 +1390,8 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
@@ -1432,9 +1400,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
@@ -1443,9 +1410,8 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -1454,9 +1420,8 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
@@ -1465,9 +1430,8 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
@@ -1476,9 +1440,8 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
@@ -1487,9 +1450,8 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
@@ -1498,9 +1460,8 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
@@ -1509,9 +1470,8 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
@@ -1520,14 +1480,13 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="13">
-        <f t="shared" ref="C23:H23" si="0">+ROUNDDOWN(SUM(C5:C9,C18:C19)-SUM(C10:C17,C21),2)</f>
+        <f t="shared" ref="C23:G23" si="0">+ROUNDDOWN(SUM(C5:C9,C18:C19)-SUM(C10:C17,C21),2)</f>
         <v>0</v>
       </c>
       <c r="D23" s="13">
@@ -1546,12 +1505,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
@@ -1560,9 +1515,8 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>22</v>
       </c>
@@ -1571,14 +1525,13 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="13">
-        <f t="shared" ref="C26:H26" si="1">+ROUNDDOWN(C23-SUM(C24:C25),2)</f>
+        <f t="shared" ref="C26:G26" si="1">+ROUNDDOWN(C23-SUM(C24:C25),2)</f>
         <v>0</v>
       </c>
       <c r="D26" s="13">
@@ -1597,12 +1550,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -1611,9 +1560,8 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
@@ -1622,14 +1570,13 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="13">
-        <f t="shared" ref="C29:H29" si="2">+ROUNDDOWN(C26+C27-C28,2)</f>
+        <f t="shared" ref="C29:G29" si="2">+ROUNDDOWN(C26+C27-C28,2)</f>
         <v>0</v>
       </c>
       <c r="D29" s="13">
@@ -1648,12 +1595,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>27</v>
       </c>
@@ -1662,14 +1605,13 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="13">
-        <f t="shared" ref="C31:H31" si="3">+ROUNDDOWN(C29-C30,2)</f>
+        <f t="shared" ref="C31:G31" si="3">+ROUNDDOWN(C29-C30,2)</f>
         <v>0</v>
       </c>
       <c r="D31" s="13">
@@ -1688,17 +1630,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="C34" s="14">
-        <f t="shared" ref="C34:H34" si="4">C31+C24+C25+C13+C14+C15+C16+C18</f>
+        <f t="shared" ref="C34:G34" si="4">C31+C24+C25+C13+C14+C15+C16+C18</f>
         <v>0</v>
       </c>
       <c r="D34" s="14">
@@ -1717,17 +1655,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H34" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" ref="C35:H35" si="5">C5+C8+C9+C6</f>
+        <f t="shared" ref="C35:G35" si="5">C5+C8+C9+C6</f>
         <v>0</v>
       </c>
       <c r="D35" s="14">
@@ -1746,17 +1680,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H35" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C36" s="14">
-        <f t="shared" ref="C36:H36" si="6">C35-C10-C11</f>
+        <f t="shared" ref="C36:G36" si="6">C35-C10-C11</f>
         <v>0</v>
       </c>
       <c r="D36" s="14">
@@ -1775,48 +1705,42 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H36" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
+        <v>33</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE313AA-EA8E-4A09-A8F1-F06DDBC84E8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Folha2"/>
-  <dimension ref="B3:I68"/>
+  <dimension ref="B3:H68"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,24 +1748,22 @@
     <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
         <f>'Demonstração de Resultados'!C4</f>
@@ -1863,21 +1785,17 @@
         <f>'Demonstração de Resultados'!G4</f>
         <v>2021</v>
       </c>
-      <c r="H4" s="1">
-        <f>'Demonstração de Resultados'!H4</f>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C5" s="17">
-        <f>+ROUNDDOWN(SUM(C6:C16),2)</f>
+        <f t="shared" ref="C5:G5" si="0">+ROUNDDOWN(SUM(C6:C16),2)</f>
         <v>0</v>
       </c>
       <c r="D5" s="17">
-        <f t="shared" ref="C5:H5" si="0">+ROUNDDOWN(SUM(D6:D16),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="17">
@@ -1892,138 +1810,123 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C17" s="17">
-        <f t="shared" ref="C17:H17" si="1">+ROUNDDOWN(SUM(C18:C30),2)</f>
+        <f t="shared" ref="C17:G17" si="1">+ROUNDDOWN(SUM(C18:C30),2)</f>
         <v>0</v>
       </c>
       <c r="D17" s="17">
@@ -2042,160 +1945,143 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C31" s="17">
-        <f t="shared" ref="C31:H31" si="2">+ROUNDDOWN(C5+C17,2)</f>
+        <f t="shared" ref="C31:G31" si="2">+ROUNDDOWN(C5+C17,2)</f>
         <v>0</v>
       </c>
       <c r="D31" s="17">
@@ -2214,171 +2100,153 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H31" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C46" s="17">
-        <f t="shared" ref="C46:H46" si="3">+ROUNDDOWN(SUM(C33:C45),2)</f>
+        <f t="shared" ref="C46:G46" si="3">+ROUNDDOWN(SUM(C33:C45),2)</f>
         <v>0</v>
       </c>
       <c r="D46" s="17">
@@ -2397,28 +2265,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H46" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C48" s="17">
-        <f t="shared" ref="C48:H48" si="4">+ROUNDDOWN(SUM(C49:C53),2)</f>
+        <f t="shared" ref="C48:G48" si="4">+ROUNDDOWN(SUM(C49:C53),2)</f>
         <v>0</v>
       </c>
       <c r="D48" s="17">
@@ -2437,75 +2300,66 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H48" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C54" s="17">
-        <f t="shared" ref="C54:H54" si="5">+ROUNDDOWN(SUM(C55:C65),2)</f>
+        <f t="shared" ref="C54:G54" si="5">+ROUNDDOWN(SUM(C55:C65),2)</f>
         <v>0</v>
       </c>
       <c r="D54" s="17">
@@ -2524,138 +2378,123 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H54" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C66" s="17">
-        <f t="shared" ref="C66:H66" si="6">+ROUNDDOWN(C48+C54,2)</f>
+        <f t="shared" ref="C66:G66" si="6">+ROUNDDOWN(C48+C54,2)</f>
         <v>0</v>
       </c>
       <c r="D66" s="17">
@@ -2674,17 +2513,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H66" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C67" s="17">
-        <f t="shared" ref="C67:H67" si="7">+ROUNDDOWN(C66+C46,2)</f>
+        <f t="shared" ref="C67:G67" si="7">+ROUNDDOWN(C66+C46,2)</f>
         <v>0</v>
       </c>
       <c r="D67" s="17">
@@ -2703,12 +2538,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H67" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -2717,19 +2548,21 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205C1174-5565-49BB-A293-497DC86CD2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Folha3"/>
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2750,10 +2583,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1">
         <f>'Demonstração de Resultados'!C4</f>
@@ -2777,15 +2610,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -2817,10 +2650,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="22" t="e">
         <f>+('Demonstração de Resultados'!C5-'Demonstração de Resultados'!C10)/'Demonstração de Resultados'!C5</f>
@@ -2845,10 +2678,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="22" t="e">
         <f>+'Demonstração de Resultados'!C31/'Demonstração de Resultados'!C5</f>
@@ -2873,10 +2706,10 @@
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C8" s="23" t="e">
         <f>+'Demonstração de Resultados'!C36/'Demonstração de Resultados'!C35</f>
@@ -2901,10 +2734,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" s="22" t="e">
         <f>+'Demonstração de Resultados'!C31/Balanço!C31</f>
@@ -2928,22 +2761,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="A10" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C11" s="22" t="e">
         <f>+'Demonstração de Resultados'!C5/Balanço!C31</f>
@@ -2968,10 +2801,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C12" s="22" t="e">
         <f>+'Demonstração de Resultados'!C12/'Demonstração de Resultados'!C5</f>
@@ -2996,10 +2829,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C13" s="22" t="e">
         <f>+'Demonstração de Resultados'!C11/'Demonstração de Resultados'!C5</f>
@@ -3024,10 +2857,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C14" s="22" t="e">
         <f>+'Demonstração de Resultados'!C10/'Demonstração de Resultados'!C5</f>
@@ -3052,10 +2885,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C15" s="22" t="e">
         <f>+('Demonstração de Resultados'!C10+'Demonstração de Resultados'!C11+'Demonstração de Resultados'!C12)/'Demonstração de Resultados'!C5</f>
@@ -3080,10 +2913,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C16" s="27" t="e">
         <f>+(Balanço!C55/(('Demonstração de Resultados'!C10+'Demonstração de Resultados'!C11)*1.23))*365</f>
@@ -3108,10 +2941,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" s="28" t="e">
         <f>+(Balanço!C20/('Demonstração de Resultados'!C5*1.23))*365</f>
@@ -3136,10 +2969,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C18" s="32" t="e">
         <f>'Demonstração de Resultados'!C36/'Demonstração de Resultados'!C37</f>
@@ -3164,10 +2997,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C19" s="33" t="e">
         <f>'Demonstração de Resultados'!C38/'Demonstração de Resultados'!C5</f>
@@ -3191,22 +3024,22 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="A20" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C21" s="22" t="e">
         <f>+Balanço!C17/Balanço!C54</f>
@@ -3231,10 +3064,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C22" s="22" t="e">
         <f>+(Balanço!C17-Balanço!C18)/Balanço!C54</f>
@@ -3259,10 +3092,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C23" s="23" t="e">
         <f>+Balanço!C30/Balanço!C54</f>
@@ -3286,22 +3119,22 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
+      <c r="A24" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C25" s="22" t="e">
         <f>+Balanço!C46/Balanço!C31</f>
@@ -3326,10 +3159,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C26" s="22" t="e">
         <f>+Balanço!C66/Balanço!C31</f>
@@ -3354,10 +3187,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C27" s="22" t="e">
         <f>+Balanço!C31/Balanço!C66</f>
@@ -3382,10 +3215,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C28" s="22" t="e">
         <f>+(Balanço!C50+Balanço!C59)/(Balanço!C46+Balanço!C50+Balanço!C59)</f>
@@ -3409,22 +3242,22 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="A29" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C30" s="22" t="e">
         <f>+('Demonstração de Resultados'!C26-'Demonstração de Resultados'!C30)/Balanço!C31</f>
@@ -3449,10 +3282,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C31" s="22" t="e">
         <f>+'Demonstração de Resultados'!C31/Balanço!C46</f>
@@ -3477,11 +3310,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
